--- a/data/trans_dic/P23_DUKE_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_DUKE_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe apoyo social global bajo</t>
+          <t>Población que recibe apoyo social global bajo (tasa de respuesta: 94,09%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>88,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>89,73%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>88,01%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>88,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>85,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>86,33%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>90,79%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>87,76%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>86,86%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>87,84%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>89,46%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>88,17%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,97; 27,73</t>
+          <t>82,07; 93,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,75; 21,75</t>
+          <t>83,59; 94,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,1; 28,02</t>
+          <t>80,78; 93,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,02; 18,98</t>
+          <t>83,27; 94,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,5; 18,69</t>
+          <t>79,38; 90,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,36; 38,93</t>
+          <t>80,23; 90,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,23; 20,86</t>
+          <t>84,92; 94,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,66; 18,68</t>
+          <t>82,13; 92,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,64; 27,88</t>
+          <t>83,15; 90,42</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>83,6; 91,16</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>85,64; 92,63</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>84,02; 91,56</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>78,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>84,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>81,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>88,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>92,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>90,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>83,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>85,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>86,3%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>87,89%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>82,52%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>86,85%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,54; 31,97</t>
+          <t>69,41; 85,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,22; 19,29</t>
+          <t>76,02; 91,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,13; 24,32</t>
+          <t>73,06; 89,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,36; 25,58</t>
+          <t>81,41; 93,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,58; 22,11</t>
+          <t>87,07; 95,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,12; 23,94</t>
+          <t>84,35; 94,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,79; 24,99</t>
+          <t>75,78; 89,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,25; 19,26</t>
+          <t>77,48; 89,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,33; 21,72</t>
+          <t>81,58; 90,28</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>82,53; 91,69</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>76,74; 87,25</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>81,61; 91,03</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>58,09%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>28,48%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>97,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>84,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>92,5%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>82,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>90,79%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>70,04%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>93,31%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>88,25%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>94,29%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 19,54</t>
+          <t>26,31; 85,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,59; 53,48</t>
+          <t>72,58; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,59; 51,26</t>
+          <t>78,19; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 23,73</t>
+          <t>81,37; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,36; 28,83</t>
+          <t>68,21; 93,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,48; 35,95</t>
+          <t>74,79; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 17,91</t>
+          <t>65,5; 94,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,16; 36,95</t>
+          <t>76,35; 97,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,54; 40,84</t>
+          <t>42,82; 84,48</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>81,77; 98,22</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>76,37; 95,74</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>85,79; 98,65</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>80,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>88,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>86,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>89,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>88,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>88,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>86,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>87,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>84,87%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>88,44%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>86,53%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>88,35%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,79; 22,7</t>
+          <t>72,54; 85,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,24; 20,81</t>
+          <t>82,93; 91,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,58; 23,31</t>
+          <t>80,92; 90,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,56; 19,74</t>
+          <t>85,41; 93,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,78; 18,72</t>
+          <t>85,08; 91,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,68; 29,27</t>
+          <t>84,95; 91,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,77; 19,77</t>
+          <t>82,81; 90,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,56; 18,74</t>
+          <t>83,13; 90,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,06; 23,7</t>
+          <t>80,34; 87,77</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>85,51; 91,02</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>83,49; 89,05</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>85,55; 90,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe apoyo social global bajo (tasa de respuesta: 94,09%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>346975</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>267550</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>301081</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>392550</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>377935</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>319938</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>338556</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>446142</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>724910</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>587487</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>639638</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>838692</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>323065; 366884</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>249238; 282643</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>276351; 319593</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>368743; 417959</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>349994; 397922</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>297342; 336122</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>316669; 351864</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>417511; 468007</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>693933; 754580</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>559069; 609647</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>612372; 662310</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>799251; 870889</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>251373</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>209453</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>230672</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>322734</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>376143</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>274254</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>251778</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>319563</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>627516</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>483708</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>482449</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>642298</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>221544; 272762</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>187895; 225467</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>205950; 251109</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>296259; 341903</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>355212; 389706</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>255750; 287155</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>229461; 269833</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>290993; 337421</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>593166; 656440</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>454247; 504618</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>448690; 510103</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>603507; 673186</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>57134</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>67907</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>67245</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>109882</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>70216</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>66271</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>61239</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>94234</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>127349</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>134178</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>128484</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>204116</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>25881; 83857</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>52367; 72153</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>56116; 71770</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>91684; 112682</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>56929; 78355</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>53588; 71647</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>48351; 69596</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>79250; 101581</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>77860; 153604</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>117587; 141234</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>111190; 139391</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>185718; 213544</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>319.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>322.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>554.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>534.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>554.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>560.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>655482</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>544910</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>598998</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>825166</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>824293</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>660464</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>651573</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>859939</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1479775</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1205373</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1250571</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1685105</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>588456; 696664</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>512063; 567527</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>563008; 628208</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>785295; 858759</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>793248; 852823</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>633254; 684241</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>620631; 674973</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>821111; 892556</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1400763; 1530361</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1165414; 1240638</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1206620; 1286965</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1631535; 1732783</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
